--- a/medicine/Bioéthique/Institut_d'éthique_contemporaine/Institut_d'éthique_contemporaine.xlsx
+++ b/medicine/Bioéthique/Institut_d'éthique_contemporaine/Institut_d'éthique_contemporaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_d%27%C3%A9thique_contemporaine</t>
+          <t>Institut_d'éthique_contemporaine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Institut d’éthique contemporaine (IEC) est un think tank, (réservoir d'idées) français basé à Paris. Sans attache partisane, ce groupe a pour objectif de permettre la réflexion, la définition  et la diffusion d'une éthique contemporaine progressiste et humaniste.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_d%27%C3%A9thique_contemporaine</t>
+          <t>Institut_d'éthique_contemporaine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Champs de réflexion</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Actuellement, l'Institut s'est fixé deux axes prioritaires de réflexion, l'un concernant l'éthique privée afin d'intégrer harmonieusement l'évolution des mœurs dans la vie quotidienne, et l'autre l'éthique publique pour réconcilier le citoyen avec le système politique et la laïcité.
 D’une façon classique, la reconnaissance des idéaux qui allait de soi il y a encore quelques décennies n’est plus évidente dans ce XXIe siècle qui commence. Comment discerner actuellement les idéaux universels qui ont toujours leur raison d’être, de ceux, caducs, qui n’ont plus à être honorés ? Comment aider à l’émergence de nouvelles valeurs en accord avec notre temps et préparer l’avenir ?
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_d%27%C3%A9thique_contemporaine</t>
+          <t>Institut_d'éthique_contemporaine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,16 +560,18 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Écriture d'articles, tous disponibles sur le site internet : http://institut-ethique-contemporaine.org/
 Organisation de conférences / débats :
-Présentation de l'IEC en conférences à Paris[1]
+Présentation de l'IEC en conférences à Paris
 l'Euthanasie et le suicide assisté
 Peut on disposer librement de notre corps ? Vers une éthique transparente de la filiation  pour tous ? (approche de la GPA)
 Les Éthiques de l'environnement
 Pour une éthique de la relation de soin (en collaboration avec la Maison de la Médecine et de la Culture)
-Comment réconcilier les citoyens avec la politique[2] (en collaboration avec Anticor; invité, le député René Dosière)</t>
+Comment réconcilier les citoyens avec la politique (en collaboration avec Anticor; invité, le député René Dosière)</t>
         </is>
       </c>
     </row>
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Institut_d%27%C3%A9thique_contemporaine</t>
+          <t>Institut_d'éthique_contemporaine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les membres de l'I.E.C. comprend des spécialistes dans les domaines des sciences humaines, de la recherche, de la société civile.
 Membres du bureau (élus chaque année en assemblée générale) :
@@ -615,7 +633,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Institut_d%27%C3%A9thique_contemporaine</t>
+          <t>Institut_d'éthique_contemporaine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -633,7 +651,9 @@
           <t>Financement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Afin de posséder une totale indépendance, l'Institut d'éthique contemporaine est financé à 100 % par la cotisation des adhérents.
 </t>
